--- a/VulDB/template_default.xlsx
+++ b/VulDB/template_default.xlsx
@@ -866,7 +866,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
